--- a/Documentations/Logical model/LM L_Plan.xlsx
+++ b/Documentations/Logical model/LM L_Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7605" yWindow="1500" windowWidth="8925" windowHeight="7290" tabRatio="548"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" tabRatio="548"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Attributes" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Attributes!$A$1:$K$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Attributes!$A$1:$K$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Entities!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="154">
   <si>
     <t>DB Schema</t>
   </si>
@@ -517,6 +517,42 @@
   </si>
   <si>
     <t>Workflow name</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Adding fields in current tables, adding i_environment_relation, i_ipc_relation, i_landscape, i_landscape_relation</t>
+  </si>
+  <si>
+    <t>I_ENVIRONMENT_RELATION</t>
+  </si>
+  <si>
+    <t>I_IPC_RELATION</t>
+  </si>
+  <si>
+    <t>I_LANDSCAPE</t>
+  </si>
+  <si>
+    <t>I_LANDSCAPE_RELATION</t>
+  </si>
+  <si>
+    <t>Relation between Domains and DB UM</t>
+  </si>
+  <si>
+    <t>Relation between Domains and Integration Services</t>
+  </si>
+  <si>
+    <t>Landscapes Dictionary</t>
+  </si>
+  <si>
+    <t>Relation between Domains and Landscapes</t>
+  </si>
+  <si>
+    <t>LANDSCAPE_ID</t>
+  </si>
+  <si>
+    <t>Reference ID of landscape</t>
   </si>
 </sst>
 </file>
@@ -606,12 +642,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -673,7 +715,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -744,6 +786,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1053,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,6 +1168,20 @@
         <v>63</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="29">
+        <v>43299</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1102,7 +1191,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1355,6 +1444,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="27">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1">
     <filterColumn colId="1">
@@ -1371,7 +1516,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT81"/>
+  <dimension ref="A1:BT93"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1559,31 +1704,37 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="32" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1597,23 +1748,23 @@
       <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>5</v>
+      <c r="J7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1627,10 +1778,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>2</v>
@@ -1639,7 +1790,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="21" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>5</v>
@@ -1647,31 +1798,31 @@
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="18" t="s">
-        <v>4</v>
+      <c r="J9" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1684,28 +1835,22 @@
       <c r="C10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>30</v>
       </c>
+      <c r="E10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1719,22 +1864,29 @@
       <c r="C11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>37</v>
+      <c r="D11" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>5</v>
+        <v>96</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1748,17 +1900,16 @@
         <v>16</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="21" t="s">
         <v>8</v>
       </c>
@@ -1768,71 +1919,65 @@
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>17</v>
+      <c r="C13" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="D14" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J14" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="32" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1847,46 +1992,58 @@
         <v>17</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="12"/>
       <c r="J16" s="18" t="s">
         <v>4</v>
       </c>
@@ -1894,21 +2051,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>2</v>
@@ -1923,65 +2080,65 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21" t="s">
+      <c r="H18" s="18"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>71</v>
       </c>
@@ -1991,26 +2148,26 @@
       <c r="C20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="D20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>71</v>
       </c>
@@ -2021,10 +2178,10 @@
         <v>19</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>2</v>
@@ -2039,7 +2196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>71</v>
       </c>
@@ -2049,69 +2206,69 @@
       <c r="C22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E24" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>2</v>
@@ -2126,7 +2283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>72</v>
       </c>
@@ -2136,84 +2293,84 @@
       <c r="C25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E27" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="F27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="12"/>
+      <c r="G27" s="21"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>73</v>
       </c>
@@ -2224,89 +2381,83 @@
         <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K30" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>74</v>
       </c>
@@ -2317,10 +2468,10 @@
         <v>22</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>2</v>
@@ -2329,9 +2480,9 @@
         <v>13</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="18" t="s">
         <v>30</v>
       </c>
       <c r="J31" s="18" t="s">
@@ -2340,69 +2491,8 @@
       <c r="K31" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6"/>
-      <c r="AK31" s="6"/>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6"/>
-      <c r="AN31" s="6"/>
-      <c r="AO31" s="6"/>
-      <c r="AP31" s="6"/>
-      <c r="AQ31" s="6"/>
-      <c r="AR31" s="6"/>
-      <c r="AS31" s="6"/>
-      <c r="AT31" s="6"/>
-      <c r="AU31" s="6"/>
-      <c r="AV31" s="6"/>
-      <c r="AW31" s="6"/>
-      <c r="AX31" s="6"/>
-      <c r="AY31" s="6"/>
-      <c r="AZ31" s="6"/>
-      <c r="BA31" s="6"/>
-      <c r="BB31" s="6"/>
-      <c r="BC31" s="6"/>
-      <c r="BD31" s="6"/>
-      <c r="BE31" s="6"/>
-      <c r="BF31" s="6"/>
-      <c r="BG31" s="6"/>
-      <c r="BH31" s="6"/>
-      <c r="BI31" s="6"/>
-      <c r="BJ31" s="6"/>
-      <c r="BK31" s="6"/>
-      <c r="BL31" s="6"/>
-      <c r="BM31" s="6"/>
-      <c r="BN31" s="6"/>
-      <c r="BO31" s="6"/>
-      <c r="BP31" s="6"/>
-      <c r="BQ31" s="6"/>
-      <c r="BR31" s="6"/>
-      <c r="BS31" s="6"/>
-      <c r="BT31" s="6"/>
-    </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>74</v>
       </c>
@@ -2412,91 +2502,24 @@
       <c r="C32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>118</v>
+      <c r="D32" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="6"/>
-      <c r="AN32" s="6"/>
-      <c r="AO32" s="6"/>
-      <c r="AP32" s="6"/>
-      <c r="AQ32" s="6"/>
-      <c r="AR32" s="6"/>
-      <c r="AS32" s="6"/>
-      <c r="AT32" s="6"/>
-      <c r="AU32" s="6"/>
-      <c r="AV32" s="6"/>
-      <c r="AW32" s="6"/>
-      <c r="AX32" s="6"/>
-      <c r="AY32" s="6"/>
-      <c r="AZ32" s="6"/>
-      <c r="BA32" s="6"/>
-      <c r="BB32" s="6"/>
-      <c r="BC32" s="6"/>
-      <c r="BD32" s="6"/>
-      <c r="BE32" s="6"/>
-      <c r="BF32" s="6"/>
-      <c r="BG32" s="6"/>
-      <c r="BH32" s="6"/>
-      <c r="BI32" s="6"/>
-      <c r="BJ32" s="6"/>
-      <c r="BK32" s="6"/>
-      <c r="BL32" s="6"/>
-      <c r="BM32" s="6"/>
-      <c r="BN32" s="6"/>
-      <c r="BO32" s="6"/>
-      <c r="BP32" s="6"/>
-      <c r="BQ32" s="6"/>
-      <c r="BR32" s="6"/>
-      <c r="BS32" s="6"/>
-      <c r="BT32" s="6"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
@@ -2508,11 +2531,11 @@
       <c r="C33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>44</v>
+      <c r="D33" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>2</v>
@@ -2520,16 +2543,16 @@
       <c r="G33" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="12" t="s">
+      <c r="H33" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J33" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="18" t="s">
         <v>2</v>
       </c>
       <c r="L33" s="6"/>
@@ -2605,10 +2628,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>2</v>
@@ -2617,7 +2640,7 @@
         <v>13</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>30</v>
@@ -2700,11 +2723,11 @@
       <c r="C35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>46</v>
+      <c r="D35" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>2</v>
@@ -2712,16 +2735,16 @@
       <c r="G35" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="18" t="s">
+      <c r="H35" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J35" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="18" t="s">
+      <c r="K35" s="12" t="s">
         <v>2</v>
       </c>
       <c r="L35" s="6"/>
@@ -2796,23 +2819,29 @@
       <c r="C36" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>122</v>
+      <c r="D36" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
+      <c r="G36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="J36" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K36" s="18" t="s">
-        <v>5</v>
+      <c r="K36" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -2878,28 +2907,34 @@
     </row>
     <row r="37" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>123</v>
+        <v>46</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="21" t="s">
-        <v>10</v>
+      <c r="G37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>4</v>
       </c>
       <c r="K37" s="18" t="s">
         <v>2</v>
@@ -2968,37 +3003,31 @@
     </row>
     <row r="38" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>118</v>
+        <v>47</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J38" s="21" t="s">
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18" t="s">
         <v>4</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -3063,38 +3092,32 @@
       <c r="BT38" s="6"/>
     </row>
     <row r="39" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>2</v>
+      <c r="A39" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="33"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="32" t="s">
+        <v>5</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
@@ -3168,28 +3191,22 @@
       <c r="C40" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>119</v>
+      <c r="D40" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
       <c r="J40" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="18" t="s">
         <v>2</v>
       </c>
       <c r="L40" s="6"/>
@@ -3264,11 +3281,11 @@
       <c r="C41" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>45</v>
+      <c r="D41" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>2</v>
@@ -3277,7 +3294,7 @@
         <v>13</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>30</v>
@@ -3285,7 +3302,7 @@
       <c r="J41" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="K41" s="18" t="s">
         <v>2</v>
       </c>
       <c r="L41" s="6"/>
@@ -3360,11 +3377,11 @@
       <c r="C42" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>46</v>
+      <c r="D42" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>2</v>
@@ -3373,15 +3390,15 @@
         <v>13</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J42" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="18" t="s">
+      <c r="K42" s="12" t="s">
         <v>2</v>
       </c>
       <c r="L42" s="6"/>
@@ -3456,22 +3473,28 @@
       <c r="C43" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>124</v>
+      <c r="D43" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="18" t="s">
+      <c r="G43" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>2</v>
       </c>
       <c r="L43" s="6"/>
@@ -3546,23 +3569,29 @@
       <c r="C44" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>108</v>
+      <c r="D44" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="18" t="s">
-        <v>5</v>
+      <c r="G44" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -3637,10 +3666,10 @@
         <v>23</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>2</v>
@@ -3649,16 +3678,16 @@
         <v>13</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J45" s="18" t="s">
+      <c r="J45" s="21" t="s">
         <v>4</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
@@ -3732,23 +3761,23 @@
       <c r="C46" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>122</v>
+      <c r="D46" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>5</v>
+      <c r="G46" s="21"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="18" t="s">
+        <v>2</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -3822,22 +3851,22 @@
       <c r="C47" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>50</v>
+      <c r="D47" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="12" t="s">
+      <c r="G47" s="21"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="18" t="s">
         <v>5</v>
       </c>
       <c r="L47" s="6"/>
@@ -3912,22 +3941,28 @@
       <c r="C48" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>126</v>
+      <c r="D48" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K48" s="12" t="s">
+      <c r="G48" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="18" t="s">
         <v>5</v>
       </c>
       <c r="L48" s="6"/>
@@ -4002,22 +4037,22 @@
       <c r="C49" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>127</v>
+      <c r="D49" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
       <c r="J49" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K49" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>5</v>
       </c>
       <c r="L49" s="6"/>
@@ -4084,31 +4119,31 @@
     </row>
     <row r="50" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>123</v>
+        <v>23</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
       <c r="J50" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="18" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -4174,37 +4209,31 @@
     </row>
     <row r="51" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>118</v>
+        <v>23</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G51" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
       <c r="J51" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K51" s="18" t="s">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -4270,37 +4299,31 @@
     </row>
     <row r="52" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>117</v>
+        <v>23</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G52" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
       <c r="J52" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -4374,28 +4397,22 @@
       <c r="C53" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>119</v>
+      <c r="D53" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G53" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
       <c r="J53" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K53" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="18" t="s">
         <v>2</v>
       </c>
       <c r="L53" s="6"/>
@@ -4470,11 +4487,11 @@
       <c r="C54" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>45</v>
+      <c r="D54" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>2</v>
@@ -4483,7 +4500,7 @@
         <v>13</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>30</v>
@@ -4491,7 +4508,7 @@
       <c r="J54" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K54" s="12" t="s">
+      <c r="K54" s="18" t="s">
         <v>2</v>
       </c>
       <c r="L54" s="6"/>
@@ -4566,11 +4583,11 @@
       <c r="C55" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="18" t="s">
-        <v>46</v>
+      <c r="D55" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>2</v>
@@ -4579,15 +4596,15 @@
         <v>13</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J55" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K55" s="18" t="s">
+      <c r="K55" s="12" t="s">
         <v>2</v>
       </c>
       <c r="L55" s="6"/>
@@ -4662,22 +4679,28 @@
       <c r="C56" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>124</v>
+      <c r="D56" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G56" s="21"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="18" t="s">
+      <c r="G56" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56" s="12" t="s">
         <v>2</v>
       </c>
       <c r="L56" s="6"/>
@@ -4752,23 +4775,29 @@
       <c r="C57" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>108</v>
+      <c r="D57" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="21"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="18" t="s">
-        <v>5</v>
+      <c r="G57" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
@@ -4843,10 +4872,10 @@
         <v>24</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>2</v>
@@ -4855,16 +4884,16 @@
         <v>13</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I58" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J58" s="18" t="s">
+      <c r="J58" s="21" t="s">
         <v>4</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -4938,23 +4967,23 @@
       <c r="C59" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>122</v>
+      <c r="D59" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>5</v>
+      <c r="G59" s="21"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>2</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
@@ -5028,22 +5057,22 @@
       <c r="C60" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>50</v>
+      <c r="D60" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="12" t="s">
+      <c r="G60" s="21"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="18" t="s">
         <v>5</v>
       </c>
       <c r="L60" s="6"/>
@@ -5118,22 +5147,28 @@
       <c r="C61" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>126</v>
+      <c r="D61" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K61" s="12" t="s">
+      <c r="G61" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K61" s="18" t="s">
         <v>5</v>
       </c>
       <c r="L61" s="6"/>
@@ -5208,22 +5243,22 @@
       <c r="C62" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>127</v>
+      <c r="D62" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
       <c r="J62" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K62" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="12" t="s">
         <v>5</v>
       </c>
       <c r="L62" s="6"/>
@@ -5290,31 +5325,31 @@
     </row>
     <row r="63" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="F63" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K63" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K63" s="21" t="s">
-        <v>2</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -5380,30 +5415,30 @@
     </row>
     <row r="64" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G64" s="21"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K64" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K64" s="12" t="s">
         <v>5</v>
       </c>
       <c r="L64" s="6"/>
@@ -5470,31 +5505,31 @@
     </row>
     <row r="65" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F65" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G65" s="21"/>
-      <c r="H65" s="18"/>
+      <c r="H65" s="21"/>
       <c r="I65" s="21"/>
-      <c r="J65" s="18" t="s">
-        <v>11</v>
+      <c r="J65" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
@@ -5560,30 +5595,30 @@
     </row>
     <row r="66" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
       <c r="J66" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="12" t="s">
+      <c r="K66" s="21" t="s">
         <v>2</v>
       </c>
       <c r="L66" s="6"/>
@@ -5650,30 +5685,30 @@
     </row>
     <row r="67" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K67" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="21"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="18" t="s">
         <v>5</v>
       </c>
       <c r="L67" s="6"/>
@@ -5740,31 +5775,31 @@
     </row>
     <row r="68" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K68" s="12" t="s">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" s="21"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>2</v>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
@@ -5830,30 +5865,30 @@
     </row>
     <row r="69" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E69" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F69" s="21" t="s">
+      <c r="E69" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
       <c r="J69" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K69" s="21" t="s">
+      <c r="K69" s="12" t="s">
         <v>2</v>
       </c>
       <c r="L69" s="6"/>
@@ -5920,30 +5955,30 @@
     </row>
     <row r="70" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G70" s="21"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K70" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K70" s="12" t="s">
         <v>5</v>
       </c>
       <c r="L70" s="6"/>
@@ -6010,31 +6045,31 @@
     </row>
     <row r="71" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G71" s="21"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="K71" s="18" t="s">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -6100,32 +6135,26 @@
     </row>
     <row r="72" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>137</v>
+        <v>27</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="F72" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I72" s="18" t="s">
-        <v>30</v>
-      </c>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
       <c r="J72" s="18" t="s">
         <v>4</v>
       </c>
@@ -6196,31 +6225,31 @@
     </row>
     <row r="73" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F73" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
+      <c r="H73" s="18"/>
       <c r="I73" s="21"/>
       <c r="J73" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K73" s="21" t="s">
-        <v>2</v>
+      <c r="K73" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
@@ -6286,36 +6315,30 @@
     </row>
     <row r="74" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G74" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" s="21"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="21"/>
       <c r="J74" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K74" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K74" s="18" t="s">
         <v>2</v>
       </c>
       <c r="L74" s="6"/>
@@ -6390,22 +6413,22 @@
       <c r="C75" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="17" t="s">
-        <v>43</v>
+      <c r="D75" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>2</v>
+        <v>137</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I75" s="12" t="s">
+      <c r="H75" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" s="18" t="s">
         <v>30</v>
       </c>
       <c r="J75" s="18" t="s">
@@ -6486,26 +6509,20 @@
       <c r="C76" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G76" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J76" s="18" t="s">
-        <v>4</v>
+      <c r="D76" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="K76" s="21" t="s">
         <v>2</v>
@@ -6582,11 +6599,11 @@
       <c r="C77" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>45</v>
+      <c r="D77" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>2</v>
@@ -6594,10 +6611,10 @@
       <c r="G77" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H77" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77" s="12" t="s">
+      <c r="H77" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J77" s="18" t="s">
@@ -6678,11 +6695,11 @@
       <c r="C78" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="18" t="s">
-        <v>46</v>
+      <c r="D78" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>2</v>
@@ -6690,10 +6707,10 @@
       <c r="G78" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="18" t="s">
+      <c r="H78" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J78" s="18" t="s">
@@ -6766,26 +6783,32 @@
     </row>
     <row r="79" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" s="21"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="J79" s="18" t="s">
         <v>4</v>
       </c>
@@ -6856,30 +6879,36 @@
     </row>
     <row r="80" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G80" s="21"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K80" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J80" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K80" s="21" t="s">
         <v>2</v>
       </c>
       <c r="L80" s="6"/>
@@ -6946,30 +6975,36 @@
     </row>
     <row r="81" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="21" t="s">
         <v>2</v>
       </c>
       <c r="L81" s="6"/>
@@ -7034,6 +7069,573 @@
       <c r="BS81" s="6"/>
       <c r="BT81" s="6"/>
     </row>
+    <row r="82" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A82" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="21"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K82" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="6"/>
+      <c r="AB82" s="6"/>
+      <c r="AC82" s="6"/>
+      <c r="AD82" s="6"/>
+      <c r="AE82" s="6"/>
+      <c r="AF82" s="6"/>
+      <c r="AG82" s="6"/>
+      <c r="AH82" s="6"/>
+      <c r="AI82" s="6"/>
+      <c r="AJ82" s="6"/>
+      <c r="AK82" s="6"/>
+      <c r="AL82" s="6"/>
+      <c r="AM82" s="6"/>
+      <c r="AN82" s="6"/>
+      <c r="AO82" s="6"/>
+      <c r="AP82" s="6"/>
+      <c r="AQ82" s="6"/>
+      <c r="AR82" s="6"/>
+      <c r="AS82" s="6"/>
+      <c r="AT82" s="6"/>
+      <c r="AU82" s="6"/>
+      <c r="AV82" s="6"/>
+      <c r="AW82" s="6"/>
+      <c r="AX82" s="6"/>
+      <c r="AY82" s="6"/>
+      <c r="AZ82" s="6"/>
+      <c r="BA82" s="6"/>
+      <c r="BB82" s="6"/>
+      <c r="BC82" s="6"/>
+      <c r="BD82" s="6"/>
+      <c r="BE82" s="6"/>
+      <c r="BF82" s="6"/>
+      <c r="BG82" s="6"/>
+      <c r="BH82" s="6"/>
+      <c r="BI82" s="6"/>
+      <c r="BJ82" s="6"/>
+      <c r="BK82" s="6"/>
+      <c r="BL82" s="6"/>
+      <c r="BM82" s="6"/>
+      <c r="BN82" s="6"/>
+      <c r="BO82" s="6"/>
+      <c r="BP82" s="6"/>
+      <c r="BQ82" s="6"/>
+      <c r="BR82" s="6"/>
+      <c r="BS82" s="6"/>
+      <c r="BT82" s="6"/>
+    </row>
+    <row r="83" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A83" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G83" s="21"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="6"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="6"/>
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="6"/>
+      <c r="AF83" s="6"/>
+      <c r="AG83" s="6"/>
+      <c r="AH83" s="6"/>
+      <c r="AI83" s="6"/>
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="6"/>
+      <c r="AL83" s="6"/>
+      <c r="AM83" s="6"/>
+      <c r="AN83" s="6"/>
+      <c r="AO83" s="6"/>
+      <c r="AP83" s="6"/>
+      <c r="AQ83" s="6"/>
+      <c r="AR83" s="6"/>
+      <c r="AS83" s="6"/>
+      <c r="AT83" s="6"/>
+      <c r="AU83" s="6"/>
+      <c r="AV83" s="6"/>
+      <c r="AW83" s="6"/>
+      <c r="AX83" s="6"/>
+      <c r="AY83" s="6"/>
+      <c r="AZ83" s="6"/>
+      <c r="BA83" s="6"/>
+      <c r="BB83" s="6"/>
+      <c r="BC83" s="6"/>
+      <c r="BD83" s="6"/>
+      <c r="BE83" s="6"/>
+      <c r="BF83" s="6"/>
+      <c r="BG83" s="6"/>
+      <c r="BH83" s="6"/>
+      <c r="BI83" s="6"/>
+      <c r="BJ83" s="6"/>
+      <c r="BK83" s="6"/>
+      <c r="BL83" s="6"/>
+      <c r="BM83" s="6"/>
+      <c r="BN83" s="6"/>
+      <c r="BO83" s="6"/>
+      <c r="BP83" s="6"/>
+      <c r="BQ83" s="6"/>
+      <c r="BR83" s="6"/>
+      <c r="BS83" s="6"/>
+      <c r="BT83" s="6"/>
+    </row>
+    <row r="84" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A84" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K84" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="6"/>
+      <c r="AB84" s="6"/>
+      <c r="AC84" s="6"/>
+      <c r="AD84" s="6"/>
+      <c r="AE84" s="6"/>
+      <c r="AF84" s="6"/>
+      <c r="AG84" s="6"/>
+      <c r="AH84" s="6"/>
+      <c r="AI84" s="6"/>
+      <c r="AJ84" s="6"/>
+      <c r="AK84" s="6"/>
+      <c r="AL84" s="6"/>
+      <c r="AM84" s="6"/>
+      <c r="AN84" s="6"/>
+      <c r="AO84" s="6"/>
+      <c r="AP84" s="6"/>
+      <c r="AQ84" s="6"/>
+      <c r="AR84" s="6"/>
+      <c r="AS84" s="6"/>
+      <c r="AT84" s="6"/>
+      <c r="AU84" s="6"/>
+      <c r="AV84" s="6"/>
+      <c r="AW84" s="6"/>
+      <c r="AX84" s="6"/>
+      <c r="AY84" s="6"/>
+      <c r="AZ84" s="6"/>
+      <c r="BA84" s="6"/>
+      <c r="BB84" s="6"/>
+      <c r="BC84" s="6"/>
+      <c r="BD84" s="6"/>
+      <c r="BE84" s="6"/>
+      <c r="BF84" s="6"/>
+      <c r="BG84" s="6"/>
+      <c r="BH84" s="6"/>
+      <c r="BI84" s="6"/>
+      <c r="BJ84" s="6"/>
+      <c r="BK84" s="6"/>
+      <c r="BL84" s="6"/>
+      <c r="BM84" s="6"/>
+      <c r="BN84" s="6"/>
+      <c r="BO84" s="6"/>
+      <c r="BP84" s="6"/>
+      <c r="BQ84" s="6"/>
+      <c r="BR84" s="6"/>
+      <c r="BS84" s="6"/>
+      <c r="BT84" s="6"/>
+    </row>
+    <row r="85" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A85" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J85" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K85" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A86" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J86" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K86" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A87" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F87" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J87" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K87" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A88" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J88" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K88" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A89" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D89" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A90" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K90" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A91" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A92" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F92" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G92" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J92" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K92" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A93" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="F93" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G93" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I93" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J93" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K93" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K4"/>
   <sortState ref="A2:V771">
